--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormB11.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormB11.xlsx
@@ -276,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -533,19 +533,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -610,7 +597,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -635,9 +622,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -674,25 +658,19 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1039,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CI43"/>
+  <dimension ref="A1:ZS43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:CI2"/>
@@ -1056,187 +1034,187 @@
     <col min="87" max="87" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:695" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
-      <c r="AW1" s="32"/>
-      <c r="AX1" s="32"/>
-      <c r="AY1" s="32"/>
-      <c r="AZ1" s="32"/>
-      <c r="BA1" s="32"/>
-      <c r="BB1" s="32"/>
-      <c r="BC1" s="32"/>
-      <c r="BD1" s="32"/>
-      <c r="BE1" s="32"/>
-      <c r="BF1" s="32"/>
-      <c r="BG1" s="32"/>
-      <c r="BH1" s="32"/>
-      <c r="BI1" s="32"/>
-      <c r="BJ1" s="32"/>
-      <c r="BK1" s="32"/>
-      <c r="BL1" s="32"/>
-      <c r="BM1" s="32"/>
-      <c r="BN1" s="32"/>
-      <c r="BO1" s="32"/>
-      <c r="BP1" s="32"/>
-      <c r="BQ1" s="32"/>
-      <c r="BR1" s="32"/>
-      <c r="BS1" s="32"/>
-      <c r="BT1" s="32"/>
-      <c r="BU1" s="32"/>
-      <c r="BV1" s="32"/>
-      <c r="BW1" s="32"/>
-      <c r="BX1" s="32"/>
-      <c r="BY1" s="32"/>
-      <c r="BZ1" s="32"/>
-      <c r="CA1" s="32"/>
-      <c r="CB1" s="32"/>
-      <c r="CC1" s="32"/>
-      <c r="CD1" s="32"/>
-      <c r="CE1" s="32"/>
-      <c r="CF1" s="32"/>
-      <c r="CG1" s="32"/>
-      <c r="CH1" s="32"/>
-      <c r="CI1" s="32"/>
-    </row>
-    <row r="2" spans="1:87" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="33"/>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33"/>
-      <c r="AI2" s="33"/>
-      <c r="AJ2" s="33"/>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-      <c r="AR2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33"/>
-      <c r="AV2" s="33"/>
-      <c r="AW2" s="33"/>
-      <c r="AX2" s="33"/>
-      <c r="AY2" s="33"/>
-      <c r="AZ2" s="33"/>
-      <c r="BA2" s="33"/>
-      <c r="BB2" s="33"/>
-      <c r="BC2" s="33"/>
-      <c r="BD2" s="33"/>
-      <c r="BE2" s="33"/>
-      <c r="BF2" s="33"/>
-      <c r="BG2" s="33"/>
-      <c r="BH2" s="33"/>
-      <c r="BI2" s="33"/>
-      <c r="BJ2" s="33"/>
-      <c r="BK2" s="33"/>
-      <c r="BL2" s="33"/>
-      <c r="BM2" s="33"/>
-      <c r="BN2" s="33"/>
-      <c r="BO2" s="33"/>
-      <c r="BP2" s="33"/>
-      <c r="BQ2" s="33"/>
-      <c r="BR2" s="33"/>
-      <c r="BS2" s="33"/>
-      <c r="BT2" s="33"/>
-      <c r="BU2" s="33"/>
-      <c r="BV2" s="33"/>
-      <c r="BW2" s="33"/>
-      <c r="BX2" s="33"/>
-      <c r="BY2" s="33"/>
-      <c r="BZ2" s="33"/>
-      <c r="CA2" s="33"/>
-      <c r="CB2" s="33"/>
-      <c r="CC2" s="33"/>
-      <c r="CD2" s="33"/>
-      <c r="CE2" s="33"/>
-      <c r="CF2" s="33"/>
-      <c r="CG2" s="33"/>
-      <c r="CH2" s="33"/>
-      <c r="CI2" s="33"/>
-    </row>
-    <row r="3" spans="1:87" ht="164.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+      <c r="AI1" s="29"/>
+      <c r="AJ1" s="29"/>
+      <c r="AK1" s="29"/>
+      <c r="AL1" s="29"/>
+      <c r="AM1" s="29"/>
+      <c r="AN1" s="29"/>
+      <c r="AO1" s="29"/>
+      <c r="AP1" s="29"/>
+      <c r="AQ1" s="29"/>
+      <c r="AR1" s="29"/>
+      <c r="AS1" s="29"/>
+      <c r="AT1" s="29"/>
+      <c r="AU1" s="29"/>
+      <c r="AV1" s="29"/>
+      <c r="AW1" s="29"/>
+      <c r="AX1" s="29"/>
+      <c r="AY1" s="29"/>
+      <c r="AZ1" s="29"/>
+      <c r="BA1" s="29"/>
+      <c r="BB1" s="29"/>
+      <c r="BC1" s="29"/>
+      <c r="BD1" s="29"/>
+      <c r="BE1" s="29"/>
+      <c r="BF1" s="29"/>
+      <c r="BG1" s="29"/>
+      <c r="BH1" s="29"/>
+      <c r="BI1" s="29"/>
+      <c r="BJ1" s="29"/>
+      <c r="BK1" s="29"/>
+      <c r="BL1" s="29"/>
+      <c r="BM1" s="29"/>
+      <c r="BN1" s="29"/>
+      <c r="BO1" s="29"/>
+      <c r="BP1" s="29"/>
+      <c r="BQ1" s="29"/>
+      <c r="BR1" s="29"/>
+      <c r="BS1" s="29"/>
+      <c r="BT1" s="29"/>
+      <c r="BU1" s="29"/>
+      <c r="BV1" s="29"/>
+      <c r="BW1" s="29"/>
+      <c r="BX1" s="29"/>
+      <c r="BY1" s="29"/>
+      <c r="BZ1" s="29"/>
+      <c r="CA1" s="29"/>
+      <c r="CB1" s="29"/>
+      <c r="CC1" s="29"/>
+      <c r="CD1" s="29"/>
+      <c r="CE1" s="29"/>
+      <c r="CF1" s="29"/>
+      <c r="CG1" s="29"/>
+      <c r="CH1" s="29"/>
+      <c r="CI1" s="29"/>
+    </row>
+    <row r="2" spans="1:695" x14ac:dyDescent="0.35">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="30"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="30"/>
+      <c r="AR2" s="30"/>
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="30"/>
+      <c r="AW2" s="30"/>
+      <c r="AX2" s="30"/>
+      <c r="AY2" s="30"/>
+      <c r="AZ2" s="30"/>
+      <c r="BA2" s="30"/>
+      <c r="BB2" s="30"/>
+      <c r="BC2" s="30"/>
+      <c r="BD2" s="30"/>
+      <c r="BE2" s="30"/>
+      <c r="BF2" s="30"/>
+      <c r="BG2" s="30"/>
+      <c r="BH2" s="30"/>
+      <c r="BI2" s="30"/>
+      <c r="BJ2" s="30"/>
+      <c r="BK2" s="30"/>
+      <c r="BL2" s="30"/>
+      <c r="BM2" s="30"/>
+      <c r="BN2" s="30"/>
+      <c r="BO2" s="30"/>
+      <c r="BP2" s="30"/>
+      <c r="BQ2" s="30"/>
+      <c r="BR2" s="30"/>
+      <c r="BS2" s="30"/>
+      <c r="BT2" s="30"/>
+      <c r="BU2" s="30"/>
+      <c r="BV2" s="30"/>
+      <c r="BW2" s="30"/>
+      <c r="BX2" s="30"/>
+      <c r="BY2" s="30"/>
+      <c r="BZ2" s="30"/>
+      <c r="CA2" s="30"/>
+      <c r="CB2" s="30"/>
+      <c r="CC2" s="30"/>
+      <c r="CD2" s="30"/>
+      <c r="CE2" s="30"/>
+      <c r="CF2" s="30"/>
+      <c r="CG2" s="30"/>
+      <c r="CH2" s="30"/>
+      <c r="CI2" s="30"/>
+    </row>
+    <row r="3" spans="1:695" ht="164.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1250,87 +1228,698 @@
         <v>4</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="24"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="24"/>
-      <c r="AS3" s="24"/>
-      <c r="AT3" s="24"/>
-      <c r="AU3" s="24"/>
-      <c r="AV3" s="24"/>
-      <c r="AW3" s="24"/>
-      <c r="AX3" s="24"/>
-      <c r="AY3" s="24"/>
-      <c r="AZ3" s="24"/>
-      <c r="BA3" s="24"/>
-      <c r="BB3" s="24"/>
-      <c r="BC3" s="24"/>
-      <c r="BD3" s="24"/>
-      <c r="BE3" s="24"/>
-      <c r="BF3" s="24"/>
-      <c r="BG3" s="24"/>
-      <c r="BH3" s="24"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9"/>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9"/>
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="9"/>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="9"/>
+      <c r="BH3" s="9"/>
+      <c r="BI3" s="9"/>
       <c r="BJ3" s="9"/>
-      <c r="BK3" s="10"/>
-      <c r="BL3" s="10"/>
-      <c r="BM3" s="10"/>
-      <c r="BN3" s="10"/>
-      <c r="BO3" s="10"/>
-      <c r="BP3" s="10"/>
-      <c r="BQ3" s="10"/>
-      <c r="BR3" s="10"/>
-      <c r="BS3" s="10"/>
-      <c r="BT3" s="10"/>
-      <c r="BU3" s="10"/>
-      <c r="BV3" s="10"/>
-      <c r="BW3" s="10"/>
-      <c r="BX3" s="10"/>
-      <c r="BY3" s="10"/>
-      <c r="BZ3" s="10"/>
-      <c r="CA3" s="10"/>
-      <c r="CB3" s="10"/>
-      <c r="CC3" s="10"/>
-      <c r="CD3" s="10"/>
-      <c r="CE3" s="10"/>
-      <c r="CF3" s="10"/>
-      <c r="CG3" s="10"/>
-      <c r="CH3" s="10"/>
-    </row>
-    <row r="4" spans="1:87" x14ac:dyDescent="0.35">
+      <c r="BK3" s="9"/>
+      <c r="BL3" s="9"/>
+      <c r="BM3" s="9"/>
+      <c r="BN3" s="9"/>
+      <c r="BO3" s="9"/>
+      <c r="BP3" s="9"/>
+      <c r="BQ3" s="9"/>
+      <c r="BR3" s="9"/>
+      <c r="BS3" s="9"/>
+      <c r="BT3" s="9"/>
+      <c r="BU3" s="9"/>
+      <c r="BV3" s="9"/>
+      <c r="BW3" s="9"/>
+      <c r="BX3" s="9"/>
+      <c r="BY3" s="9"/>
+      <c r="BZ3" s="9"/>
+      <c r="CA3" s="9"/>
+      <c r="CB3" s="9"/>
+      <c r="CC3" s="9"/>
+      <c r="CD3" s="9"/>
+      <c r="CE3" s="9"/>
+      <c r="CF3" s="9"/>
+      <c r="CG3" s="9"/>
+      <c r="CH3" s="9"/>
+      <c r="CI3" s="9"/>
+      <c r="CJ3" s="9"/>
+      <c r="CK3" s="9"/>
+      <c r="CL3" s="9"/>
+      <c r="CM3" s="9"/>
+      <c r="CN3" s="9"/>
+      <c r="CO3" s="9"/>
+      <c r="CP3" s="9"/>
+      <c r="CQ3" s="9"/>
+      <c r="CR3" s="9"/>
+      <c r="CS3" s="9"/>
+      <c r="CT3" s="9"/>
+      <c r="CU3" s="9"/>
+      <c r="CV3" s="9"/>
+      <c r="CW3" s="9"/>
+      <c r="CX3" s="9"/>
+      <c r="CY3" s="9"/>
+      <c r="CZ3" s="9"/>
+      <c r="DA3" s="9"/>
+      <c r="DB3" s="9"/>
+      <c r="DC3" s="9"/>
+      <c r="DD3" s="9"/>
+      <c r="DE3" s="9"/>
+      <c r="DF3" s="9"/>
+      <c r="DG3" s="9"/>
+      <c r="DH3" s="9"/>
+      <c r="DI3" s="9"/>
+      <c r="DJ3" s="9"/>
+      <c r="DK3" s="9"/>
+      <c r="DL3" s="9"/>
+      <c r="DM3" s="9"/>
+      <c r="DN3" s="9"/>
+      <c r="DO3" s="9"/>
+      <c r="DP3" s="9"/>
+      <c r="DQ3" s="9"/>
+      <c r="DR3" s="9"/>
+      <c r="DS3" s="9"/>
+      <c r="DT3" s="9"/>
+      <c r="DU3" s="9"/>
+      <c r="DV3" s="9"/>
+      <c r="DW3" s="9"/>
+      <c r="DX3" s="9"/>
+      <c r="DY3" s="9"/>
+      <c r="DZ3" s="9"/>
+      <c r="EA3" s="9"/>
+      <c r="EB3" s="9"/>
+      <c r="EC3" s="9"/>
+      <c r="ED3" s="9"/>
+      <c r="EE3" s="9"/>
+      <c r="EF3" s="9"/>
+      <c r="EG3" s="9"/>
+      <c r="EH3" s="9"/>
+      <c r="EI3" s="9"/>
+      <c r="EJ3" s="9"/>
+      <c r="EK3" s="9"/>
+      <c r="EL3" s="9"/>
+      <c r="EM3" s="9"/>
+      <c r="EN3" s="9"/>
+      <c r="EO3" s="9"/>
+      <c r="EP3" s="9"/>
+      <c r="EQ3" s="9"/>
+      <c r="ER3" s="9"/>
+      <c r="ES3" s="9"/>
+      <c r="ET3" s="9"/>
+      <c r="EU3" s="9"/>
+      <c r="EV3" s="9"/>
+      <c r="EW3" s="9"/>
+      <c r="EX3" s="9"/>
+      <c r="EY3" s="9"/>
+      <c r="EZ3" s="9"/>
+      <c r="FA3" s="9"/>
+      <c r="FB3" s="9"/>
+      <c r="FC3" s="9"/>
+      <c r="FD3" s="9"/>
+      <c r="FE3" s="9"/>
+      <c r="FF3" s="9"/>
+      <c r="FG3" s="9"/>
+      <c r="FH3" s="9"/>
+      <c r="FI3" s="9"/>
+      <c r="FJ3" s="9"/>
+      <c r="FK3" s="9"/>
+      <c r="FL3" s="9"/>
+      <c r="FM3" s="9"/>
+      <c r="FN3" s="9"/>
+      <c r="FO3" s="9"/>
+      <c r="FP3" s="9"/>
+      <c r="FQ3" s="9"/>
+      <c r="FR3" s="9"/>
+      <c r="FS3" s="9"/>
+      <c r="FT3" s="9"/>
+      <c r="FU3" s="9"/>
+      <c r="FV3" s="9"/>
+      <c r="FW3" s="9"/>
+      <c r="FX3" s="9"/>
+      <c r="FY3" s="9"/>
+      <c r="FZ3" s="9"/>
+      <c r="GA3" s="9"/>
+      <c r="GB3" s="9"/>
+      <c r="GC3" s="9"/>
+      <c r="GD3" s="9"/>
+      <c r="GE3" s="9"/>
+      <c r="GF3" s="9"/>
+      <c r="GG3" s="9"/>
+      <c r="GH3" s="9"/>
+      <c r="GI3" s="9"/>
+      <c r="GJ3" s="9"/>
+      <c r="GK3" s="9"/>
+      <c r="GL3" s="9"/>
+      <c r="GM3" s="9"/>
+      <c r="GN3" s="9"/>
+      <c r="GO3" s="9"/>
+      <c r="GP3" s="9"/>
+      <c r="GQ3" s="9"/>
+      <c r="GR3" s="9"/>
+      <c r="GS3" s="9"/>
+      <c r="GT3" s="9"/>
+      <c r="GU3" s="9"/>
+      <c r="GV3" s="9"/>
+      <c r="GW3" s="9"/>
+      <c r="GX3" s="9"/>
+      <c r="GY3" s="9"/>
+      <c r="GZ3" s="9"/>
+      <c r="HA3" s="9"/>
+      <c r="HB3" s="9"/>
+      <c r="HC3" s="9"/>
+      <c r="HD3" s="9"/>
+      <c r="HE3" s="9"/>
+      <c r="HF3" s="9"/>
+      <c r="HG3" s="9"/>
+      <c r="HH3" s="9"/>
+      <c r="HI3" s="9"/>
+      <c r="HJ3" s="9"/>
+      <c r="HK3" s="9"/>
+      <c r="HL3" s="9"/>
+      <c r="HM3" s="9"/>
+      <c r="HN3" s="9"/>
+      <c r="HO3" s="9"/>
+      <c r="HP3" s="9"/>
+      <c r="HQ3" s="9"/>
+      <c r="HR3" s="9"/>
+      <c r="HS3" s="9"/>
+      <c r="HT3" s="9"/>
+      <c r="HU3" s="9"/>
+      <c r="HV3" s="9"/>
+      <c r="HW3" s="9"/>
+      <c r="HX3" s="9"/>
+      <c r="HY3" s="9"/>
+      <c r="HZ3" s="9"/>
+      <c r="IA3" s="9"/>
+      <c r="IB3" s="9"/>
+      <c r="IC3" s="9"/>
+      <c r="ID3" s="9"/>
+      <c r="IE3" s="9"/>
+      <c r="IF3" s="9"/>
+      <c r="IG3" s="9"/>
+      <c r="IH3" s="9"/>
+      <c r="II3" s="9"/>
+      <c r="IJ3" s="9"/>
+      <c r="IK3" s="9"/>
+      <c r="IL3" s="9"/>
+      <c r="IM3" s="9"/>
+      <c r="IN3" s="9"/>
+      <c r="IO3" s="9"/>
+      <c r="IP3" s="9"/>
+      <c r="IQ3" s="9"/>
+      <c r="IR3" s="9"/>
+      <c r="IS3" s="9"/>
+      <c r="IT3" s="9"/>
+      <c r="IU3" s="9"/>
+      <c r="IV3" s="9"/>
+      <c r="IW3" s="9"/>
+      <c r="IX3" s="9"/>
+      <c r="IY3" s="9"/>
+      <c r="IZ3" s="9"/>
+      <c r="JA3" s="9"/>
+      <c r="JB3" s="9"/>
+      <c r="JC3" s="9"/>
+      <c r="JD3" s="9"/>
+      <c r="JE3" s="9"/>
+      <c r="JF3" s="9"/>
+      <c r="JG3" s="9"/>
+      <c r="JH3" s="9"/>
+      <c r="JI3" s="9"/>
+      <c r="JJ3" s="9"/>
+      <c r="JK3" s="9"/>
+      <c r="JL3" s="9"/>
+      <c r="JM3" s="9"/>
+      <c r="JN3" s="9"/>
+      <c r="JO3" s="9"/>
+      <c r="JP3" s="9"/>
+      <c r="JQ3" s="9"/>
+      <c r="JR3" s="9"/>
+      <c r="JS3" s="9"/>
+      <c r="JT3" s="9"/>
+      <c r="JU3" s="9"/>
+      <c r="JV3" s="9"/>
+      <c r="JW3" s="9"/>
+      <c r="JX3" s="9"/>
+      <c r="JY3" s="9"/>
+      <c r="JZ3" s="9"/>
+      <c r="KA3" s="9"/>
+      <c r="KB3" s="9"/>
+      <c r="KC3" s="9"/>
+      <c r="KD3" s="9"/>
+      <c r="KE3" s="9"/>
+      <c r="KF3" s="9"/>
+      <c r="KG3" s="9"/>
+      <c r="KH3" s="9"/>
+      <c r="KI3" s="9"/>
+      <c r="KJ3" s="9"/>
+      <c r="KK3" s="9"/>
+      <c r="KL3" s="9"/>
+      <c r="KM3" s="9"/>
+      <c r="KN3" s="9"/>
+      <c r="KO3" s="9"/>
+      <c r="KP3" s="9"/>
+      <c r="KQ3" s="9"/>
+      <c r="KR3" s="9"/>
+      <c r="KS3" s="9"/>
+      <c r="KT3" s="9"/>
+      <c r="KU3" s="9"/>
+      <c r="KV3" s="9"/>
+      <c r="KW3" s="9"/>
+      <c r="KX3" s="9"/>
+      <c r="KY3" s="9"/>
+      <c r="KZ3" s="9"/>
+      <c r="LA3" s="9"/>
+      <c r="LB3" s="9"/>
+      <c r="LC3" s="9"/>
+      <c r="LD3" s="9"/>
+      <c r="LE3" s="9"/>
+      <c r="LF3" s="9"/>
+      <c r="LG3" s="9"/>
+      <c r="LH3" s="9"/>
+      <c r="LI3" s="9"/>
+      <c r="LJ3" s="9"/>
+      <c r="LK3" s="9"/>
+      <c r="LL3" s="9"/>
+      <c r="LM3" s="9"/>
+      <c r="LN3" s="9"/>
+      <c r="LO3" s="9"/>
+      <c r="LP3" s="9"/>
+      <c r="LQ3" s="9"/>
+      <c r="LR3" s="9"/>
+      <c r="LS3" s="9"/>
+      <c r="LT3" s="9"/>
+      <c r="LU3" s="9"/>
+      <c r="LV3" s="9"/>
+      <c r="LW3" s="9"/>
+      <c r="LX3" s="9"/>
+      <c r="LY3" s="9"/>
+      <c r="LZ3" s="9"/>
+      <c r="MA3" s="9"/>
+      <c r="MB3" s="9"/>
+      <c r="MC3" s="9"/>
+      <c r="MD3" s="9"/>
+      <c r="ME3" s="9"/>
+      <c r="MF3" s="9"/>
+      <c r="MG3" s="9"/>
+      <c r="MH3" s="9"/>
+      <c r="MI3" s="9"/>
+      <c r="MJ3" s="9"/>
+      <c r="MK3" s="9"/>
+      <c r="ML3" s="9"/>
+      <c r="MM3" s="9"/>
+      <c r="MN3" s="9"/>
+      <c r="MO3" s="9"/>
+      <c r="MP3" s="9"/>
+      <c r="MQ3" s="9"/>
+      <c r="MR3" s="9"/>
+      <c r="MS3" s="9"/>
+      <c r="MT3" s="9"/>
+      <c r="MU3" s="9"/>
+      <c r="MV3" s="9"/>
+      <c r="MW3" s="9"/>
+      <c r="MX3" s="9"/>
+      <c r="MY3" s="9"/>
+      <c r="MZ3" s="9"/>
+      <c r="NA3" s="9"/>
+      <c r="NB3" s="9"/>
+      <c r="NC3" s="9"/>
+      <c r="ND3" s="9"/>
+      <c r="NE3" s="9"/>
+      <c r="NF3" s="9"/>
+      <c r="NG3" s="9"/>
+      <c r="NH3" s="9"/>
+      <c r="NI3" s="9"/>
+      <c r="NJ3" s="9"/>
+      <c r="NK3" s="9"/>
+      <c r="NL3" s="9"/>
+      <c r="NM3" s="9"/>
+      <c r="NN3" s="9"/>
+      <c r="NO3" s="9"/>
+      <c r="NP3" s="9"/>
+      <c r="NQ3" s="9"/>
+      <c r="NR3" s="9"/>
+      <c r="NS3" s="9"/>
+      <c r="NT3" s="9"/>
+      <c r="NU3" s="9"/>
+      <c r="NV3" s="9"/>
+      <c r="NW3" s="9"/>
+      <c r="NX3" s="9"/>
+      <c r="NY3" s="9"/>
+      <c r="NZ3" s="9"/>
+      <c r="OA3" s="9"/>
+      <c r="OB3" s="9"/>
+      <c r="OC3" s="9"/>
+      <c r="OD3" s="9"/>
+      <c r="OE3" s="9"/>
+      <c r="OF3" s="9"/>
+      <c r="OG3" s="9"/>
+      <c r="OH3" s="9"/>
+      <c r="OI3" s="9"/>
+      <c r="OJ3" s="9"/>
+      <c r="OK3" s="9"/>
+      <c r="OL3" s="9"/>
+      <c r="OM3" s="9"/>
+      <c r="ON3" s="9"/>
+      <c r="OO3" s="9"/>
+      <c r="OP3" s="9"/>
+      <c r="OQ3" s="9"/>
+      <c r="OR3" s="9"/>
+      <c r="OS3" s="9"/>
+      <c r="OT3" s="9"/>
+      <c r="OU3" s="9"/>
+      <c r="OV3" s="9"/>
+      <c r="OW3" s="9"/>
+      <c r="OX3" s="9"/>
+      <c r="OY3" s="9"/>
+      <c r="OZ3" s="9"/>
+      <c r="PA3" s="9"/>
+      <c r="PB3" s="9"/>
+      <c r="PC3" s="9"/>
+      <c r="PD3" s="9"/>
+      <c r="PE3" s="9"/>
+      <c r="PF3" s="9"/>
+      <c r="PG3" s="9"/>
+      <c r="PH3" s="9"/>
+      <c r="PI3" s="9"/>
+      <c r="PJ3" s="9"/>
+      <c r="PK3" s="9"/>
+      <c r="PL3" s="9"/>
+      <c r="PM3" s="9"/>
+      <c r="PN3" s="9"/>
+      <c r="PO3" s="9"/>
+      <c r="PP3" s="9"/>
+      <c r="PQ3" s="9"/>
+      <c r="PR3" s="9"/>
+      <c r="PS3" s="9"/>
+      <c r="PT3" s="9"/>
+      <c r="PU3" s="9"/>
+      <c r="PV3" s="9"/>
+      <c r="PW3" s="9"/>
+      <c r="PX3" s="9"/>
+      <c r="PY3" s="9"/>
+      <c r="PZ3" s="9"/>
+      <c r="QA3" s="9"/>
+      <c r="QB3" s="9"/>
+      <c r="QC3" s="9"/>
+      <c r="QD3" s="9"/>
+      <c r="QE3" s="9"/>
+      <c r="QF3" s="9"/>
+      <c r="QG3" s="9"/>
+      <c r="QH3" s="9"/>
+      <c r="QI3" s="9"/>
+      <c r="QJ3" s="9"/>
+      <c r="QK3" s="9"/>
+      <c r="QL3" s="9"/>
+      <c r="QM3" s="9"/>
+      <c r="QN3" s="9"/>
+      <c r="QO3" s="9"/>
+      <c r="QP3" s="9"/>
+      <c r="QQ3" s="9"/>
+      <c r="QR3" s="9"/>
+      <c r="QS3" s="9"/>
+      <c r="QT3" s="9"/>
+      <c r="QU3" s="9"/>
+      <c r="QV3" s="9"/>
+      <c r="QW3" s="9"/>
+      <c r="QX3" s="9"/>
+      <c r="QY3" s="9"/>
+      <c r="QZ3" s="9"/>
+      <c r="RA3" s="9"/>
+      <c r="RB3" s="9"/>
+      <c r="RC3" s="9"/>
+      <c r="RD3" s="9"/>
+      <c r="RE3" s="9"/>
+      <c r="RF3" s="9"/>
+      <c r="RG3" s="9"/>
+      <c r="RH3" s="9"/>
+      <c r="RI3" s="9"/>
+      <c r="RJ3" s="9"/>
+      <c r="RK3" s="9"/>
+      <c r="RL3" s="9"/>
+      <c r="RM3" s="9"/>
+      <c r="RN3" s="9"/>
+      <c r="RO3" s="9"/>
+      <c r="RP3" s="9"/>
+      <c r="RQ3" s="9"/>
+      <c r="RR3" s="9"/>
+      <c r="RS3" s="9"/>
+      <c r="RT3" s="9"/>
+      <c r="RU3" s="9"/>
+      <c r="RV3" s="9"/>
+      <c r="RW3" s="9"/>
+      <c r="RX3" s="9"/>
+      <c r="RY3" s="9"/>
+      <c r="RZ3" s="9"/>
+      <c r="SA3" s="9"/>
+      <c r="SB3" s="9"/>
+      <c r="SC3" s="9"/>
+      <c r="SD3" s="9"/>
+      <c r="SE3" s="9"/>
+      <c r="SF3" s="9"/>
+      <c r="SG3" s="9"/>
+      <c r="SH3" s="9"/>
+      <c r="SI3" s="9"/>
+      <c r="SJ3" s="9"/>
+      <c r="SK3" s="9"/>
+      <c r="SL3" s="9"/>
+      <c r="SM3" s="9"/>
+      <c r="SN3" s="9"/>
+      <c r="SO3" s="9"/>
+      <c r="SP3" s="9"/>
+      <c r="SQ3" s="9"/>
+      <c r="SR3" s="9"/>
+      <c r="SS3" s="9"/>
+      <c r="ST3" s="9"/>
+      <c r="SU3" s="9"/>
+      <c r="SV3" s="9"/>
+      <c r="SW3" s="9"/>
+      <c r="SX3" s="9"/>
+      <c r="SY3" s="9"/>
+      <c r="SZ3" s="9"/>
+      <c r="TA3" s="9"/>
+      <c r="TB3" s="9"/>
+      <c r="TC3" s="9"/>
+      <c r="TD3" s="9"/>
+      <c r="TE3" s="9"/>
+      <c r="TF3" s="9"/>
+      <c r="TG3" s="9"/>
+      <c r="TH3" s="9"/>
+      <c r="TI3" s="9"/>
+      <c r="TJ3" s="9"/>
+      <c r="TK3" s="9"/>
+      <c r="TL3" s="9"/>
+      <c r="TM3" s="9"/>
+      <c r="TN3" s="9"/>
+      <c r="TO3" s="9"/>
+      <c r="TP3" s="9"/>
+      <c r="TQ3" s="9"/>
+      <c r="TR3" s="9"/>
+      <c r="TS3" s="9"/>
+      <c r="TT3" s="9"/>
+      <c r="TU3" s="9"/>
+      <c r="TV3" s="9"/>
+      <c r="TW3" s="9"/>
+      <c r="TX3" s="9"/>
+      <c r="TY3" s="9"/>
+      <c r="TZ3" s="9"/>
+      <c r="UA3" s="9"/>
+      <c r="UB3" s="9"/>
+      <c r="UC3" s="9"/>
+      <c r="UD3" s="9"/>
+      <c r="UE3" s="9"/>
+      <c r="UF3" s="9"/>
+      <c r="UG3" s="9"/>
+      <c r="UH3" s="9"/>
+      <c r="UI3" s="9"/>
+      <c r="UJ3" s="9"/>
+      <c r="UK3" s="9"/>
+      <c r="UL3" s="9"/>
+      <c r="UM3" s="9"/>
+      <c r="UN3" s="9"/>
+      <c r="UO3" s="9"/>
+      <c r="UP3" s="9"/>
+      <c r="UQ3" s="9"/>
+      <c r="UR3" s="9"/>
+      <c r="US3" s="9"/>
+      <c r="UT3" s="9"/>
+      <c r="UU3" s="9"/>
+      <c r="UV3" s="9"/>
+      <c r="UW3" s="9"/>
+      <c r="UX3" s="9"/>
+      <c r="UY3" s="9"/>
+      <c r="UZ3" s="9"/>
+      <c r="VA3" s="9"/>
+      <c r="VB3" s="9"/>
+      <c r="VC3" s="9"/>
+      <c r="VD3" s="9"/>
+      <c r="VE3" s="9"/>
+      <c r="VF3" s="9"/>
+      <c r="VG3" s="9"/>
+      <c r="VH3" s="9"/>
+      <c r="VI3" s="9"/>
+      <c r="VJ3" s="9"/>
+      <c r="VK3" s="9"/>
+      <c r="VL3" s="9"/>
+      <c r="VM3" s="9"/>
+      <c r="VN3" s="9"/>
+      <c r="VO3" s="9"/>
+      <c r="VP3" s="9"/>
+      <c r="VQ3" s="9"/>
+      <c r="VR3" s="9"/>
+      <c r="VS3" s="9"/>
+      <c r="VT3" s="9"/>
+      <c r="VU3" s="9"/>
+      <c r="VV3" s="9"/>
+      <c r="VW3" s="9"/>
+      <c r="VX3" s="9"/>
+      <c r="VY3" s="9"/>
+      <c r="VZ3" s="9"/>
+      <c r="WA3" s="9"/>
+      <c r="WB3" s="9"/>
+      <c r="WC3" s="9"/>
+      <c r="WD3" s="9"/>
+      <c r="WE3" s="9"/>
+      <c r="WF3" s="9"/>
+      <c r="WG3" s="9"/>
+      <c r="WH3" s="9"/>
+      <c r="WI3" s="9"/>
+      <c r="WJ3" s="9"/>
+      <c r="WK3" s="9"/>
+      <c r="WL3" s="9"/>
+      <c r="WM3" s="9"/>
+      <c r="WN3" s="9"/>
+      <c r="WO3" s="9"/>
+      <c r="WP3" s="9"/>
+      <c r="WQ3" s="9"/>
+      <c r="WR3" s="9"/>
+      <c r="WS3" s="9"/>
+      <c r="WT3" s="9"/>
+      <c r="WU3" s="9"/>
+      <c r="WV3" s="9"/>
+      <c r="WW3" s="9"/>
+      <c r="WX3" s="9"/>
+      <c r="WY3" s="9"/>
+      <c r="WZ3" s="9"/>
+      <c r="XA3" s="9"/>
+      <c r="XB3" s="9"/>
+      <c r="XC3" s="9"/>
+      <c r="XD3" s="9"/>
+      <c r="XE3" s="9"/>
+      <c r="XF3" s="9"/>
+      <c r="XG3" s="9"/>
+      <c r="XH3" s="9"/>
+      <c r="XI3" s="9"/>
+      <c r="XJ3" s="9"/>
+      <c r="XK3" s="9"/>
+      <c r="XL3" s="9"/>
+      <c r="XM3" s="9"/>
+      <c r="XN3" s="9"/>
+      <c r="XO3" s="9"/>
+      <c r="XP3" s="9"/>
+      <c r="XQ3" s="9"/>
+      <c r="XR3" s="9"/>
+      <c r="XS3" s="9"/>
+      <c r="XT3" s="9"/>
+      <c r="XU3" s="9"/>
+      <c r="XV3" s="9"/>
+      <c r="XW3" s="9"/>
+      <c r="XX3" s="9"/>
+      <c r="XY3" s="9"/>
+      <c r="XZ3" s="9"/>
+      <c r="YA3" s="9"/>
+      <c r="YB3" s="9"/>
+      <c r="YC3" s="9"/>
+      <c r="YD3" s="9"/>
+      <c r="YE3" s="9"/>
+      <c r="YF3" s="9"/>
+      <c r="YG3" s="9"/>
+      <c r="YH3" s="9"/>
+      <c r="YI3" s="9"/>
+      <c r="YJ3" s="9"/>
+      <c r="YK3" s="9"/>
+      <c r="YL3" s="9"/>
+      <c r="YM3" s="9"/>
+      <c r="YN3" s="9"/>
+      <c r="YO3" s="9"/>
+      <c r="YP3" s="9"/>
+      <c r="YQ3" s="9"/>
+      <c r="YR3" s="9"/>
+      <c r="YS3" s="9"/>
+      <c r="YT3" s="9"/>
+      <c r="YU3" s="9"/>
+      <c r="YV3" s="9"/>
+      <c r="YW3" s="9"/>
+      <c r="YX3" s="9"/>
+      <c r="YY3" s="9"/>
+      <c r="YZ3" s="9"/>
+      <c r="ZA3" s="9"/>
+      <c r="ZB3" s="9"/>
+      <c r="ZC3" s="9"/>
+      <c r="ZD3" s="9"/>
+      <c r="ZE3" s="9"/>
+      <c r="ZF3" s="9"/>
+      <c r="ZG3" s="9"/>
+      <c r="ZH3" s="9"/>
+      <c r="ZI3" s="9"/>
+      <c r="ZJ3" s="9"/>
+      <c r="ZK3" s="9"/>
+      <c r="ZL3" s="9"/>
+      <c r="ZM3" s="9"/>
+      <c r="ZN3" s="9"/>
+      <c r="ZO3" s="9"/>
+      <c r="ZP3" s="9"/>
+      <c r="ZQ3" s="9"/>
+      <c r="ZR3" s="9"/>
+      <c r="ZS3" s="9"/>
+    </row>
+    <row r="4" spans="1:695" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="8" t="s">
@@ -1343,923 +1932,923 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25"/>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25"/>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="25"/>
-      <c r="AO4" s="25"/>
-      <c r="AP4" s="25"/>
-      <c r="AQ4" s="25"/>
-      <c r="AR4" s="25"/>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="25"/>
-      <c r="AV4" s="25"/>
-      <c r="AW4" s="25"/>
-      <c r="AX4" s="25"/>
-      <c r="AY4" s="25"/>
-      <c r="AZ4" s="25"/>
-      <c r="BA4" s="25"/>
-      <c r="BB4" s="25"/>
-      <c r="BC4" s="25"/>
-      <c r="BD4" s="25"/>
-      <c r="BE4" s="25"/>
-      <c r="BF4" s="25"/>
-      <c r="BG4" s="25"/>
-      <c r="BH4" s="25"/>
-      <c r="BI4" s="28"/>
-      <c r="BJ4" s="28"/>
-      <c r="BK4" s="28"/>
-      <c r="BL4" s="28"/>
-      <c r="BM4" s="28"/>
-      <c r="BN4" s="28"/>
-      <c r="BO4" s="28"/>
-      <c r="BP4" s="28"/>
-      <c r="BQ4" s="28"/>
-      <c r="BR4" s="28"/>
-      <c r="BS4" s="28"/>
-      <c r="BT4" s="28"/>
-      <c r="BU4" s="28"/>
-      <c r="BV4" s="28"/>
-      <c r="BW4" s="28"/>
-      <c r="BX4" s="28"/>
-      <c r="BY4" s="28"/>
-      <c r="BZ4" s="28"/>
-      <c r="CA4" s="28"/>
-      <c r="CB4" s="28"/>
-      <c r="CC4" s="28"/>
-      <c r="CD4" s="28"/>
-      <c r="CE4" s="28"/>
-      <c r="CF4" s="28"/>
-      <c r="CG4" s="28"/>
-      <c r="CH4" s="28"/>
-      <c r="CI4" s="25"/>
-    </row>
-    <row r="5" spans="1:87" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
-      <c r="X5" s="27"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="27"/>
-      <c r="AD5" s="27"/>
-      <c r="AE5" s="27"/>
-      <c r="AF5" s="27"/>
-      <c r="AG5" s="27"/>
-      <c r="AH5" s="27"/>
-      <c r="AI5" s="27"/>
-      <c r="AJ5" s="27"/>
-      <c r="AK5" s="27"/>
-      <c r="AL5" s="27"/>
-      <c r="AM5" s="27"/>
-      <c r="AN5" s="27"/>
-      <c r="AO5" s="27"/>
-      <c r="AP5" s="27"/>
-      <c r="AQ5" s="27"/>
-      <c r="AR5" s="27"/>
-      <c r="AS5" s="27"/>
-      <c r="AT5" s="27"/>
-      <c r="AU5" s="27"/>
-      <c r="AV5" s="27"/>
-      <c r="AW5" s="27"/>
-      <c r="AX5" s="27"/>
-      <c r="AY5" s="27"/>
-      <c r="AZ5" s="27"/>
-      <c r="BA5" s="27"/>
-      <c r="BB5" s="27"/>
-      <c r="BC5" s="27"/>
-      <c r="BD5" s="27"/>
-      <c r="BE5" s="27"/>
-      <c r="BF5" s="27"/>
-      <c r="BG5" s="27"/>
-      <c r="BH5" s="27"/>
-      <c r="BI5" s="26"/>
-      <c r="BJ5" s="11"/>
-      <c r="BK5" s="11"/>
-      <c r="BL5" s="11"/>
-      <c r="BM5" s="11"/>
-      <c r="BN5" s="11"/>
-      <c r="BO5" s="11"/>
-      <c r="BP5" s="11"/>
-      <c r="BQ5" s="11"/>
-      <c r="BR5" s="11"/>
-      <c r="BS5" s="11"/>
-      <c r="BT5" s="11"/>
-      <c r="BU5" s="11"/>
-      <c r="BV5" s="11"/>
-      <c r="BW5" s="11"/>
-      <c r="BX5" s="11"/>
-      <c r="BY5" s="11"/>
-      <c r="BZ5" s="11"/>
-      <c r="CA5" s="11"/>
-      <c r="CB5" s="11"/>
-      <c r="CC5" s="11"/>
-      <c r="CD5" s="11"/>
-      <c r="CE5" s="11"/>
-      <c r="CF5" s="11"/>
-      <c r="CG5" s="11"/>
-      <c r="CH5" s="11"/>
-      <c r="CI5" s="26"/>
-    </row>
-    <row r="6" spans="1:87" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="34" t="s">
+      <c r="K4" s="21"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="22"/>
+      <c r="AF4" s="22"/>
+      <c r="AG4" s="22"/>
+      <c r="AH4" s="22"/>
+      <c r="AI4" s="22"/>
+      <c r="AJ4" s="22"/>
+      <c r="AK4" s="22"/>
+      <c r="AL4" s="22"/>
+      <c r="AM4" s="22"/>
+      <c r="AN4" s="22"/>
+      <c r="AO4" s="22"/>
+      <c r="AP4" s="22"/>
+      <c r="AQ4" s="22"/>
+      <c r="AR4" s="22"/>
+      <c r="AS4" s="22"/>
+      <c r="AT4" s="22"/>
+      <c r="AU4" s="22"/>
+      <c r="AV4" s="22"/>
+      <c r="AW4" s="22"/>
+      <c r="AX4" s="22"/>
+      <c r="AY4" s="22"/>
+      <c r="AZ4" s="22"/>
+      <c r="BA4" s="22"/>
+      <c r="BB4" s="22"/>
+      <c r="BC4" s="22"/>
+      <c r="BD4" s="22"/>
+      <c r="BE4" s="22"/>
+      <c r="BF4" s="22"/>
+      <c r="BG4" s="22"/>
+      <c r="BH4" s="22"/>
+      <c r="BI4" s="25"/>
+      <c r="BJ4" s="25"/>
+      <c r="BK4" s="25"/>
+      <c r="BL4" s="25"/>
+      <c r="BM4" s="25"/>
+      <c r="BN4" s="25"/>
+      <c r="BO4" s="25"/>
+      <c r="BP4" s="25"/>
+      <c r="BQ4" s="25"/>
+      <c r="BR4" s="25"/>
+      <c r="BS4" s="25"/>
+      <c r="BT4" s="25"/>
+      <c r="BU4" s="25"/>
+      <c r="BV4" s="25"/>
+      <c r="BW4" s="25"/>
+      <c r="BX4" s="25"/>
+      <c r="BY4" s="25"/>
+      <c r="BZ4" s="25"/>
+      <c r="CA4" s="25"/>
+      <c r="CB4" s="25"/>
+      <c r="CC4" s="25"/>
+      <c r="CD4" s="25"/>
+      <c r="CE4" s="25"/>
+      <c r="CF4" s="25"/>
+      <c r="CG4" s="25"/>
+      <c r="CH4" s="25"/>
+      <c r="CI4" s="22"/>
+    </row>
+    <row r="5" spans="1:695" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="24"/>
+      <c r="AI5" s="24"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="24"/>
+      <c r="AM5" s="24"/>
+      <c r="AN5" s="24"/>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="24"/>
+      <c r="AQ5" s="24"/>
+      <c r="AR5" s="24"/>
+      <c r="AS5" s="24"/>
+      <c r="AT5" s="24"/>
+      <c r="AU5" s="24"/>
+      <c r="AV5" s="24"/>
+      <c r="AW5" s="24"/>
+      <c r="AX5" s="24"/>
+      <c r="AY5" s="24"/>
+      <c r="AZ5" s="24"/>
+      <c r="BA5" s="24"/>
+      <c r="BB5" s="24"/>
+      <c r="BC5" s="24"/>
+      <c r="BD5" s="24"/>
+      <c r="BE5" s="24"/>
+      <c r="BF5" s="24"/>
+      <c r="BG5" s="24"/>
+      <c r="BH5" s="24"/>
+      <c r="BI5" s="23"/>
+      <c r="BJ5" s="10"/>
+      <c r="BK5" s="10"/>
+      <c r="BL5" s="10"/>
+      <c r="BM5" s="10"/>
+      <c r="BN5" s="10"/>
+      <c r="BO5" s="10"/>
+      <c r="BP5" s="10"/>
+      <c r="BQ5" s="10"/>
+      <c r="BR5" s="10"/>
+      <c r="BS5" s="10"/>
+      <c r="BT5" s="10"/>
+      <c r="BU5" s="10"/>
+      <c r="BV5" s="10"/>
+      <c r="BW5" s="10"/>
+      <c r="BX5" s="10"/>
+      <c r="BY5" s="10"/>
+      <c r="BZ5" s="10"/>
+      <c r="CA5" s="10"/>
+      <c r="CB5" s="10"/>
+      <c r="CC5" s="10"/>
+      <c r="CD5" s="10"/>
+      <c r="CE5" s="10"/>
+      <c r="CF5" s="10"/>
+      <c r="CG5" s="10"/>
+      <c r="CH5" s="10"/>
+      <c r="CI5" s="23"/>
+    </row>
+    <row r="6" spans="1:695" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>1011</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="21"/>
-    </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.35">
-      <c r="A7" s="35"/>
-      <c r="B7" s="14">
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:695" x14ac:dyDescent="0.35">
+      <c r="A7" s="32"/>
+      <c r="B7" s="13">
         <v>1012</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="21"/>
-    </row>
-    <row r="8" spans="1:87" x14ac:dyDescent="0.35">
-      <c r="A8" s="35"/>
-      <c r="B8" s="15">
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:695" x14ac:dyDescent="0.35">
+      <c r="A8" s="32"/>
+      <c r="B8" s="14">
         <v>3013</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="21"/>
-    </row>
-    <row r="9" spans="1:87" x14ac:dyDescent="0.35">
-      <c r="A9" s="35"/>
-      <c r="B9" s="15">
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:695" x14ac:dyDescent="0.35">
+      <c r="A9" s="32"/>
+      <c r="B9" s="14">
         <v>3014</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="21"/>
-    </row>
-    <row r="10" spans="1:87" x14ac:dyDescent="0.35">
-      <c r="A10" s="35"/>
-      <c r="B10" s="15">
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:695" x14ac:dyDescent="0.35">
+      <c r="A10" s="32"/>
+      <c r="B10" s="14">
         <v>3015</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="21"/>
-    </row>
-    <row r="11" spans="1:87" x14ac:dyDescent="0.35">
-      <c r="A11" s="35"/>
-      <c r="B11" s="15">
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:695" x14ac:dyDescent="0.35">
+      <c r="A11" s="32"/>
+      <c r="B11" s="14">
         <v>3016</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="21"/>
-    </row>
-    <row r="12" spans="1:87" x14ac:dyDescent="0.35">
-      <c r="A12" s="35"/>
-      <c r="B12" s="15">
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:695" x14ac:dyDescent="0.35">
+      <c r="A12" s="32"/>
+      <c r="B12" s="14">
         <v>3017</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:87" x14ac:dyDescent="0.35">
-      <c r="A13" s="35"/>
-      <c r="B13" s="15">
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="1:695" x14ac:dyDescent="0.35">
+      <c r="A13" s="32"/>
+      <c r="B13" s="14">
         <v>3018</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="21"/>
-    </row>
-    <row r="14" spans="1:87" x14ac:dyDescent="0.35">
-      <c r="A14" s="36"/>
-      <c r="B14" s="16">
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="1:695" x14ac:dyDescent="0.35">
+      <c r="A14" s="33"/>
+      <c r="B14" s="15">
         <v>3019</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="21"/>
-    </row>
-    <row r="15" spans="1:87" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="37" t="s">
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="1:695" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <v>1021</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="21"/>
-    </row>
-    <row r="16" spans="1:87" x14ac:dyDescent="0.35">
-      <c r="A16" s="38"/>
-      <c r="B16" s="15">
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:695" x14ac:dyDescent="0.35">
+      <c r="A16" s="35"/>
+      <c r="B16" s="14">
         <v>3022</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="21"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="38"/>
-      <c r="B17" s="15">
+      <c r="A17" s="35"/>
+      <c r="B17" s="14">
         <v>3023</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="21"/>
+      <c r="D17" s="20"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="38"/>
-      <c r="B18" s="16">
+      <c r="A18" s="35"/>
+      <c r="B18" s="15">
         <v>3024</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="21"/>
+      <c r="D18" s="20"/>
     </row>
     <row r="19" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <v>1041</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="21"/>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="35"/>
-      <c r="B20" s="15">
+      <c r="A20" s="32"/>
+      <c r="B20" s="14">
         <v>1042</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="21"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="35"/>
-      <c r="B21" s="15">
+      <c r="A21" s="32"/>
+      <c r="B21" s="14">
         <v>1043</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="21"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="35"/>
-      <c r="B22" s="15">
+      <c r="A22" s="32"/>
+      <c r="B22" s="14">
         <v>4044</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="21"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="35"/>
-      <c r="B23" s="16">
+      <c r="A23" s="32"/>
+      <c r="B23" s="15">
         <v>4045</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="21"/>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="34" t="s">
+      <c r="A24" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <v>1031</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="21"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="35"/>
-      <c r="B25" s="15">
+      <c r="A25" s="32"/>
+      <c r="B25" s="14">
         <v>1032</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="21"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="35"/>
-      <c r="B26" s="15">
+      <c r="A26" s="32"/>
+      <c r="B26" s="14">
         <v>4033</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="21"/>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="35"/>
-      <c r="B27" s="16">
+      <c r="A27" s="32"/>
+      <c r="B27" s="15">
         <v>4034</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="21"/>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" spans="1:4" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="12">
         <v>1051</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="21"/>
+      <c r="D28" s="20"/>
     </row>
     <row r="29" spans="1:4" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="35"/>
-      <c r="B29" s="16">
+      <c r="A29" s="32"/>
+      <c r="B29" s="15">
         <v>6052</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="21"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="12">
         <v>1061</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="21"/>
+      <c r="D30" s="20"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="35"/>
-      <c r="B31" s="15">
+      <c r="A31" s="32"/>
+      <c r="B31" s="14">
         <v>6062</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="21"/>
+      <c r="D31" s="20"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="35"/>
-      <c r="B32" s="16">
+      <c r="A32" s="32"/>
+      <c r="B32" s="15">
         <v>6063</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="21"/>
+      <c r="D32" s="20"/>
     </row>
     <row r="33" spans="1:86" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="13">
         <v>1071</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="21"/>
+      <c r="D33" s="20"/>
     </row>
     <row r="34" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A34" s="35"/>
-      <c r="B34" s="15">
+      <c r="A34" s="32"/>
+      <c r="B34" s="14">
         <v>1072</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="21"/>
+      <c r="D34" s="20"/>
     </row>
     <row r="35" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A35" s="35"/>
-      <c r="B35" s="15">
+      <c r="A35" s="32"/>
+      <c r="B35" s="14">
         <v>1073</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="21"/>
+      <c r="D35" s="20"/>
     </row>
     <row r="36" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A36" s="35"/>
-      <c r="B36" s="15">
+      <c r="A36" s="32"/>
+      <c r="B36" s="14">
         <v>7074</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="21"/>
+      <c r="D36" s="20"/>
     </row>
     <row r="37" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A37" s="35"/>
-      <c r="B37" s="15">
+      <c r="A37" s="32"/>
+      <c r="B37" s="14">
         <v>7075</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="21"/>
+      <c r="D37" s="20"/>
     </row>
     <row r="38" spans="1:86" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="34" t="s">
+      <c r="A38" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="12">
         <v>9091</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="29"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="29"/>
-      <c r="AE38" s="29"/>
-      <c r="AF38" s="29"/>
-      <c r="AG38" s="29"/>
-      <c r="AH38" s="29"/>
-      <c r="AI38" s="29"/>
-      <c r="AJ38" s="29"/>
-      <c r="AK38" s="29"/>
-      <c r="AL38" s="29"/>
-      <c r="AM38" s="29"/>
-      <c r="AN38" s="29"/>
-      <c r="AO38" s="29"/>
-      <c r="AP38" s="29"/>
-      <c r="AQ38" s="29"/>
-      <c r="AR38" s="29"/>
-      <c r="AS38" s="29"/>
-      <c r="AT38" s="29"/>
-      <c r="AU38" s="29"/>
-      <c r="AV38" s="29"/>
-      <c r="AW38" s="29"/>
-      <c r="AX38" s="29"/>
-      <c r="AY38" s="29"/>
-      <c r="AZ38" s="29"/>
-      <c r="BA38" s="29"/>
-      <c r="BB38" s="29"/>
-      <c r="BC38" s="29"/>
-      <c r="BD38" s="29"/>
-      <c r="BE38" s="29"/>
-      <c r="BF38" s="29"/>
-      <c r="BG38" s="29"/>
-      <c r="BH38" s="29"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
+      <c r="AB38" s="26"/>
+      <c r="AC38" s="26"/>
+      <c r="AD38" s="26"/>
+      <c r="AE38" s="26"/>
+      <c r="AF38" s="26"/>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="26"/>
+      <c r="AI38" s="26"/>
+      <c r="AJ38" s="26"/>
+      <c r="AK38" s="26"/>
+      <c r="AL38" s="26"/>
+      <c r="AM38" s="26"/>
+      <c r="AN38" s="26"/>
+      <c r="AO38" s="26"/>
+      <c r="AP38" s="26"/>
+      <c r="AQ38" s="26"/>
+      <c r="AR38" s="26"/>
+      <c r="AS38" s="26"/>
+      <c r="AT38" s="26"/>
+      <c r="AU38" s="26"/>
+      <c r="AV38" s="26"/>
+      <c r="AW38" s="26"/>
+      <c r="AX38" s="26"/>
+      <c r="AY38" s="26"/>
+      <c r="AZ38" s="26"/>
+      <c r="BA38" s="26"/>
+      <c r="BB38" s="26"/>
+      <c r="BC38" s="26"/>
+      <c r="BD38" s="26"/>
+      <c r="BE38" s="26"/>
+      <c r="BF38" s="26"/>
+      <c r="BG38" s="26"/>
+      <c r="BH38" s="26"/>
     </row>
     <row r="39" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A39" s="35"/>
-      <c r="B39" s="15">
+      <c r="A39" s="32"/>
+      <c r="B39" s="14">
         <v>9092</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="21"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="29"/>
-      <c r="M39" s="29"/>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
-      <c r="X39" s="29"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="29"/>
-      <c r="AA39" s="29"/>
-      <c r="AB39" s="29"/>
-      <c r="AC39" s="29"/>
-      <c r="AD39" s="29"/>
-      <c r="AE39" s="29"/>
-      <c r="AF39" s="29"/>
-      <c r="AG39" s="29"/>
-      <c r="AH39" s="29"/>
-      <c r="AI39" s="29"/>
-      <c r="AJ39" s="29"/>
-      <c r="AK39" s="29"/>
-      <c r="AL39" s="29"/>
-      <c r="AM39" s="29"/>
-      <c r="AN39" s="29"/>
-      <c r="AO39" s="29"/>
-      <c r="AP39" s="29"/>
-      <c r="AQ39" s="29"/>
-      <c r="AR39" s="29"/>
-      <c r="AS39" s="29"/>
-      <c r="AT39" s="29"/>
-      <c r="AU39" s="29"/>
-      <c r="AV39" s="29"/>
-      <c r="AW39" s="29"/>
-      <c r="AX39" s="29"/>
-      <c r="AY39" s="29"/>
-      <c r="AZ39" s="29"/>
-      <c r="BA39" s="29"/>
-      <c r="BB39" s="29"/>
-      <c r="BC39" s="29"/>
-      <c r="BD39" s="29"/>
-      <c r="BE39" s="29"/>
-      <c r="BF39" s="29"/>
-      <c r="BG39" s="29"/>
-      <c r="BH39" s="29"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="26"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="26"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="26"/>
+      <c r="AI39" s="26"/>
+      <c r="AJ39" s="26"/>
+      <c r="AK39" s="26"/>
+      <c r="AL39" s="26"/>
+      <c r="AM39" s="26"/>
+      <c r="AN39" s="26"/>
+      <c r="AO39" s="26"/>
+      <c r="AP39" s="26"/>
+      <c r="AQ39" s="26"/>
+      <c r="AR39" s="26"/>
+      <c r="AS39" s="26"/>
+      <c r="AT39" s="26"/>
+      <c r="AU39" s="26"/>
+      <c r="AV39" s="26"/>
+      <c r="AW39" s="26"/>
+      <c r="AX39" s="26"/>
+      <c r="AY39" s="26"/>
+      <c r="AZ39" s="26"/>
+      <c r="BA39" s="26"/>
+      <c r="BB39" s="26"/>
+      <c r="BC39" s="26"/>
+      <c r="BD39" s="26"/>
+      <c r="BE39" s="26"/>
+      <c r="BF39" s="26"/>
+      <c r="BG39" s="26"/>
+      <c r="BH39" s="26"/>
     </row>
     <row r="40" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A40" s="35"/>
-      <c r="B40" s="15">
+      <c r="A40" s="32"/>
+      <c r="B40" s="14">
         <v>9093</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
-      <c r="X40" s="29"/>
-      <c r="Y40" s="29"/>
-      <c r="Z40" s="29"/>
-      <c r="AA40" s="29"/>
-      <c r="AB40" s="29"/>
-      <c r="AC40" s="29"/>
-      <c r="AD40" s="29"/>
-      <c r="AE40" s="29"/>
-      <c r="AF40" s="29"/>
-      <c r="AG40" s="29"/>
-      <c r="AH40" s="29"/>
-      <c r="AI40" s="29"/>
-      <c r="AJ40" s="29"/>
-      <c r="AK40" s="29"/>
-      <c r="AL40" s="29"/>
-      <c r="AM40" s="29"/>
-      <c r="AN40" s="29"/>
-      <c r="AO40" s="29"/>
-      <c r="AP40" s="29"/>
-      <c r="AQ40" s="29"/>
-      <c r="AR40" s="29"/>
-      <c r="AS40" s="29"/>
-      <c r="AT40" s="29"/>
-      <c r="AU40" s="29"/>
-      <c r="AV40" s="29"/>
-      <c r="AW40" s="29"/>
-      <c r="AX40" s="29"/>
-      <c r="AY40" s="29"/>
-      <c r="AZ40" s="29"/>
-      <c r="BA40" s="29"/>
-      <c r="BB40" s="29"/>
-      <c r="BC40" s="29"/>
-      <c r="BD40" s="29"/>
-      <c r="BE40" s="29"/>
-      <c r="BF40" s="29"/>
-      <c r="BG40" s="29"/>
-      <c r="BH40" s="29"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="26"/>
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="26"/>
+      <c r="AE40" s="26"/>
+      <c r="AF40" s="26"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="26"/>
+      <c r="AJ40" s="26"/>
+      <c r="AK40" s="26"/>
+      <c r="AL40" s="26"/>
+      <c r="AM40" s="26"/>
+      <c r="AN40" s="26"/>
+      <c r="AO40" s="26"/>
+      <c r="AP40" s="26"/>
+      <c r="AQ40" s="26"/>
+      <c r="AR40" s="26"/>
+      <c r="AS40" s="26"/>
+      <c r="AT40" s="26"/>
+      <c r="AU40" s="26"/>
+      <c r="AV40" s="26"/>
+      <c r="AW40" s="26"/>
+      <c r="AX40" s="26"/>
+      <c r="AY40" s="26"/>
+      <c r="AZ40" s="26"/>
+      <c r="BA40" s="26"/>
+      <c r="BB40" s="26"/>
+      <c r="BC40" s="26"/>
+      <c r="BD40" s="26"/>
+      <c r="BE40" s="26"/>
+      <c r="BF40" s="26"/>
+      <c r="BG40" s="26"/>
+      <c r="BH40" s="26"/>
     </row>
     <row r="41" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A41" s="35"/>
-      <c r="B41" s="15">
+      <c r="A41" s="32"/>
+      <c r="B41" s="14">
         <v>9194</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
-      <c r="M41" s="29"/>
-      <c r="N41" s="29"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="29"/>
-      <c r="R41" s="29"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="29"/>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
-      <c r="X41" s="29"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="29"/>
-      <c r="AA41" s="29"/>
-      <c r="AB41" s="29"/>
-      <c r="AC41" s="29"/>
-      <c r="AD41" s="29"/>
-      <c r="AE41" s="29"/>
-      <c r="AF41" s="29"/>
-      <c r="AG41" s="29"/>
-      <c r="AH41" s="29"/>
-      <c r="AI41" s="29"/>
-      <c r="AJ41" s="29"/>
-      <c r="AK41" s="29"/>
-      <c r="AL41" s="29"/>
-      <c r="AM41" s="29"/>
-      <c r="AN41" s="29"/>
-      <c r="AO41" s="29"/>
-      <c r="AP41" s="29"/>
-      <c r="AQ41" s="29"/>
-      <c r="AR41" s="29"/>
-      <c r="AS41" s="29"/>
-      <c r="AT41" s="29"/>
-      <c r="AU41" s="29"/>
-      <c r="AV41" s="29"/>
-      <c r="AW41" s="29"/>
-      <c r="AX41" s="29"/>
-      <c r="AY41" s="29"/>
-      <c r="AZ41" s="29"/>
-      <c r="BA41" s="29"/>
-      <c r="BB41" s="29"/>
-      <c r="BC41" s="29"/>
-      <c r="BD41" s="29"/>
-      <c r="BE41" s="29"/>
-      <c r="BF41" s="29"/>
-      <c r="BG41" s="29"/>
-      <c r="BH41" s="29"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="26"/>
+      <c r="AA41" s="26"/>
+      <c r="AB41" s="26"/>
+      <c r="AC41" s="26"/>
+      <c r="AD41" s="26"/>
+      <c r="AE41" s="26"/>
+      <c r="AF41" s="26"/>
+      <c r="AG41" s="26"/>
+      <c r="AH41" s="26"/>
+      <c r="AI41" s="26"/>
+      <c r="AJ41" s="26"/>
+      <c r="AK41" s="26"/>
+      <c r="AL41" s="26"/>
+      <c r="AM41" s="26"/>
+      <c r="AN41" s="26"/>
+      <c r="AO41" s="26"/>
+      <c r="AP41" s="26"/>
+      <c r="AQ41" s="26"/>
+      <c r="AR41" s="26"/>
+      <c r="AS41" s="26"/>
+      <c r="AT41" s="26"/>
+      <c r="AU41" s="26"/>
+      <c r="AV41" s="26"/>
+      <c r="AW41" s="26"/>
+      <c r="AX41" s="26"/>
+      <c r="AY41" s="26"/>
+      <c r="AZ41" s="26"/>
+      <c r="BA41" s="26"/>
+      <c r="BB41" s="26"/>
+      <c r="BC41" s="26"/>
+      <c r="BD41" s="26"/>
+      <c r="BE41" s="26"/>
+      <c r="BF41" s="26"/>
+      <c r="BG41" s="26"/>
+      <c r="BH41" s="26"/>
     </row>
     <row r="42" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A42" s="35"/>
-      <c r="B42" s="15">
+      <c r="A42" s="32"/>
+      <c r="B42" s="14">
         <v>9195</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
-      <c r="M42" s="29"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
-      <c r="X42" s="29"/>
-      <c r="Y42" s="29"/>
-      <c r="Z42" s="29"/>
-      <c r="AA42" s="29"/>
-      <c r="AB42" s="29"/>
-      <c r="AC42" s="29"/>
-      <c r="AD42" s="29"/>
-      <c r="AE42" s="29"/>
-      <c r="AF42" s="29"/>
-      <c r="AG42" s="29"/>
-      <c r="AH42" s="29"/>
-      <c r="AI42" s="29"/>
-      <c r="AJ42" s="29"/>
-      <c r="AK42" s="29"/>
-      <c r="AL42" s="29"/>
-      <c r="AM42" s="29"/>
-      <c r="AN42" s="29"/>
-      <c r="AO42" s="29"/>
-      <c r="AP42" s="29"/>
-      <c r="AQ42" s="29"/>
-      <c r="AR42" s="29"/>
-      <c r="AS42" s="29"/>
-      <c r="AT42" s="29"/>
-      <c r="AU42" s="29"/>
-      <c r="AV42" s="29"/>
-      <c r="AW42" s="29"/>
-      <c r="AX42" s="29"/>
-      <c r="AY42" s="29"/>
-      <c r="AZ42" s="29"/>
-      <c r="BA42" s="29"/>
-      <c r="BB42" s="29"/>
-      <c r="BC42" s="29"/>
-      <c r="BD42" s="29"/>
-      <c r="BE42" s="29"/>
-      <c r="BF42" s="29"/>
-      <c r="BG42" s="29"/>
-      <c r="BH42" s="29"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="26"/>
+      <c r="AA42" s="26"/>
+      <c r="AB42" s="26"/>
+      <c r="AC42" s="26"/>
+      <c r="AD42" s="26"/>
+      <c r="AE42" s="26"/>
+      <c r="AF42" s="26"/>
+      <c r="AG42" s="26"/>
+      <c r="AH42" s="26"/>
+      <c r="AI42" s="26"/>
+      <c r="AJ42" s="26"/>
+      <c r="AK42" s="26"/>
+      <c r="AL42" s="26"/>
+      <c r="AM42" s="26"/>
+      <c r="AN42" s="26"/>
+      <c r="AO42" s="26"/>
+      <c r="AP42" s="26"/>
+      <c r="AQ42" s="26"/>
+      <c r="AR42" s="26"/>
+      <c r="AS42" s="26"/>
+      <c r="AT42" s="26"/>
+      <c r="AU42" s="26"/>
+      <c r="AV42" s="26"/>
+      <c r="AW42" s="26"/>
+      <c r="AX42" s="26"/>
+      <c r="AY42" s="26"/>
+      <c r="AZ42" s="26"/>
+      <c r="BA42" s="26"/>
+      <c r="BB42" s="26"/>
+      <c r="BC42" s="26"/>
+      <c r="BD42" s="26"/>
+      <c r="BE42" s="26"/>
+      <c r="BF42" s="26"/>
+      <c r="BG42" s="26"/>
+      <c r="BH42" s="26"/>
     </row>
     <row r="43" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A43" s="36"/>
-      <c r="B43" s="16">
+      <c r="A43" s="33"/>
+      <c r="B43" s="15">
         <v>9500</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="30"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="30"/>
-      <c r="Z43" s="30"/>
-      <c r="AA43" s="30"/>
-      <c r="AB43" s="30"/>
-      <c r="AC43" s="30"/>
-      <c r="AD43" s="30"/>
-      <c r="AE43" s="30"/>
-      <c r="AF43" s="30"/>
-      <c r="AG43" s="30"/>
-      <c r="AH43" s="30"/>
-      <c r="AI43" s="30"/>
-      <c r="AJ43" s="30"/>
-      <c r="AK43" s="30"/>
-      <c r="AL43" s="30"/>
-      <c r="AM43" s="30"/>
-      <c r="AN43" s="30"/>
-      <c r="AO43" s="30"/>
-      <c r="AP43" s="30"/>
-      <c r="AQ43" s="30"/>
-      <c r="AR43" s="30"/>
-      <c r="AS43" s="30"/>
-      <c r="AT43" s="30"/>
-      <c r="AU43" s="30"/>
-      <c r="AV43" s="30"/>
-      <c r="AW43" s="30"/>
-      <c r="AX43" s="30"/>
-      <c r="AY43" s="30"/>
-      <c r="AZ43" s="30"/>
-      <c r="BA43" s="30"/>
-      <c r="BB43" s="30"/>
-      <c r="BC43" s="30"/>
-      <c r="BD43" s="30"/>
-      <c r="BE43" s="30"/>
-      <c r="BF43" s="30"/>
-      <c r="BG43" s="30"/>
-      <c r="BH43" s="30"/>
-      <c r="BJ43" s="31"/>
-      <c r="BK43" s="30"/>
-      <c r="BL43" s="30"/>
-      <c r="BM43" s="30"/>
-      <c r="BN43" s="30"/>
-      <c r="BO43" s="30"/>
-      <c r="BP43" s="30"/>
-      <c r="BQ43" s="30"/>
-      <c r="BR43" s="30"/>
-      <c r="BS43" s="30"/>
-      <c r="BT43" s="30"/>
-      <c r="BU43" s="30"/>
-      <c r="BV43" s="30"/>
-      <c r="BW43" s="30"/>
-      <c r="BX43" s="30"/>
-      <c r="BY43" s="30"/>
-      <c r="BZ43" s="30"/>
-      <c r="CA43" s="30"/>
-      <c r="CB43" s="30"/>
-      <c r="CC43" s="30"/>
-      <c r="CD43" s="30"/>
-      <c r="CE43" s="30"/>
-      <c r="CF43" s="30"/>
-      <c r="CG43" s="30"/>
-      <c r="CH43" s="30"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="27"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27"/>
+      <c r="AB43" s="27"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="27"/>
+      <c r="AE43" s="27"/>
+      <c r="AF43" s="27"/>
+      <c r="AG43" s="27"/>
+      <c r="AH43" s="27"/>
+      <c r="AI43" s="27"/>
+      <c r="AJ43" s="27"/>
+      <c r="AK43" s="27"/>
+      <c r="AL43" s="27"/>
+      <c r="AM43" s="27"/>
+      <c r="AN43" s="27"/>
+      <c r="AO43" s="27"/>
+      <c r="AP43" s="27"/>
+      <c r="AQ43" s="27"/>
+      <c r="AR43" s="27"/>
+      <c r="AS43" s="27"/>
+      <c r="AT43" s="27"/>
+      <c r="AU43" s="27"/>
+      <c r="AV43" s="27"/>
+      <c r="AW43" s="27"/>
+      <c r="AX43" s="27"/>
+      <c r="AY43" s="27"/>
+      <c r="AZ43" s="27"/>
+      <c r="BA43" s="27"/>
+      <c r="BB43" s="27"/>
+      <c r="BC43" s="27"/>
+      <c r="BD43" s="27"/>
+      <c r="BE43" s="27"/>
+      <c r="BF43" s="27"/>
+      <c r="BG43" s="27"/>
+      <c r="BH43" s="27"/>
+      <c r="BJ43" s="28"/>
+      <c r="BK43" s="27"/>
+      <c r="BL43" s="27"/>
+      <c r="BM43" s="27"/>
+      <c r="BN43" s="27"/>
+      <c r="BO43" s="27"/>
+      <c r="BP43" s="27"/>
+      <c r="BQ43" s="27"/>
+      <c r="BR43" s="27"/>
+      <c r="BS43" s="27"/>
+      <c r="BT43" s="27"/>
+      <c r="BU43" s="27"/>
+      <c r="BV43" s="27"/>
+      <c r="BW43" s="27"/>
+      <c r="BX43" s="27"/>
+      <c r="BY43" s="27"/>
+      <c r="BZ43" s="27"/>
+      <c r="CA43" s="27"/>
+      <c r="CB43" s="27"/>
+      <c r="CC43" s="27"/>
+      <c r="CD43" s="27"/>
+      <c r="CE43" s="27"/>
+      <c r="CF43" s="27"/>
+      <c r="CG43" s="27"/>
+      <c r="CH43" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="9">
